--- a/biology/Médecine/1705_en_santé_et_médecine/1705_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1705_en_santé_et_médecine/1705_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1705_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1705_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1705 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1705_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1705_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>France
-Septembre : Édit pour établir des places de barbiers dans les villes où il n’y a point de justice royale[1].
+Septembre : Édit pour établir des places de barbiers dans les villes où il n’y a point de justice royale.
 Italie
-De nombreux décès soudains frappent Rome durant l’année : le pape Clément XI demande aux autorités sanitaires de la ville de mener une enquête et de procéder à des autopsies sur les individus concernés[2]</t>
+De nombreux décès soudains frappent Rome durant l’année : le pape Clément XI demande aux autorités sanitaires de la ville de mener une enquête et de procéder à des autopsies sur les individus concernés</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1705_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1705_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'anatomiste français Raymond Vieussens publie Novum vasorum corporis humani systema, Amsterdam, apud Paulum Marret, 260 p. (lire en ligne), considéré comme l'un des premiers travaux classiques de cardiologie.
-Le chirurgien français Jean-Louis Petit publie L'Art de guérir les maladies des os, premier ouvrage significatif sur les maladies osseuses. L'auteur emploie pour la première fois le mot d'« ostéomalacie »[3].</t>
+Le chirurgien français Jean-Louis Petit publie L'Art de guérir les maladies des os, premier ouvrage significatif sur les maladies osseuses. L'auteur emploie pour la première fois le mot d'« ostéomalacie ».</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1705_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1705_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2 janvier : Amadio Baldanzi (it) (mort en 1789), médecin italien.
 24 février : Hieronymus David Gaubius (mort en 1780), médecin et chimiste allemand.
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1705_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1705_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>10 novembre : Justine Siegemund (née en 1636), sage-femme allemande.
 19 décembre : Pirro Maria Gabrielli (né en 1643), médecin italien.
